--- a/read3.xlsx
+++ b/read3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/'/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/do an server/hgedu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,16 +98,16 @@
     <t xml:space="preserve"> cho abc  &lt;ct&gt;b^4&lt;/ct&gt; va &lt;ct&gt;c^0&lt;/ct&gt;</t>
   </si>
   <si>
-    <t>nnnn</t>
-  </si>
-  <si>
-    <t>mm</t>
-  </si>
-  <si>
-    <t>ll</t>
-  </si>
-  <si>
-    <t>aaa1</t>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>wwwww</t>
   </si>
 </sst>
 </file>
@@ -163,8 +163,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -212,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -234,6 +236,7 @@
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -255,6 +258,7 @@
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,7 +537,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,7 +745,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>1</v>

--- a/read3.xlsx
+++ b/read3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/do an server/hgedu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/server/hgedu/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,23 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
-  <si>
-    <t>1fk12j312al</t>
-  </si>
-  <si>
-    <t>khong cho abc  &lt;ct&gt;b^4&lt;/ct&gt; va &lt;ct&gt;c^0&lt;/ct&gt; het</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="67">
   <si>
     <t>day la cau hoi o chuong abc</t>
   </si>
   <si>
-    <t>Dap an la 36</t>
-  </si>
-  <si>
-    <t>Dap an la 37</t>
-  </si>
-  <si>
     <t>loi giai</t>
   </si>
   <si>
@@ -56,9 +44,6 @@
     <t>Dap an la cau3</t>
   </si>
   <si>
-    <t>Dap an &lt;ct&gt;b^3&lt;/ct&gt; la cau thu ba abc co gia tri &lt;ct&gt;b^3&lt;/ct&gt;</t>
-  </si>
-  <si>
     <t>Dap an &lt;ct&gt;b^4&lt;/ct&gt; la cau thu ba abc co gia tri &lt;ct&gt;a^4&lt;/ct&gt;</t>
   </si>
   <si>
@@ -98,16 +83,154 @@
     <t xml:space="preserve"> cho abc  &lt;ct&gt;b^4&lt;/ct&gt; va &lt;ct&gt;c^0&lt;/ct&gt;</t>
   </si>
   <si>
-    <t>w1</t>
-  </si>
-  <si>
-    <t>w2</t>
-  </si>
-  <si>
-    <t>w3</t>
-  </si>
-  <si>
-    <t>wwwww</t>
+    <t>Dap 1 an &lt;ct&gt;b^3&lt;/ct&gt; la cau thu ba abc co gia tri &lt;ct&gt;b^3&lt;/ct&gt;</t>
+  </si>
+  <si>
+    <t>asfaf</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 1</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 2</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 3</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 4</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 5</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 6</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 7</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 8</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 9</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 10</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 11</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 12</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 13</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 14</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 15</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 16</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 17</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 18</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 19</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 20</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 21</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 22</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 23</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 24</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 25</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 26</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 27</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 28</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 29</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 30</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 31</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 32</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 33</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 34</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 35</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 36</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 37</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 38</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 39</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 40</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 41</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 42</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 43</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 44</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 45</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 46</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 47</t>
+  </si>
+  <si>
+    <t>Đã xóa dấu phẩy, mời bạn thêm lại dữ liệu 48</t>
   </si>
 </sst>
 </file>
@@ -534,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:H200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -556,13 +679,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E1">
         <v>3</v>
@@ -574,12 +697,12 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -587,7 +710,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="b">
         <v>0</v>
@@ -596,7 +719,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -604,7 +727,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
@@ -616,13 +739,13 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -634,12 +757,12 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
@@ -648,7 +771,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
@@ -657,7 +780,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1" t="b">
         <v>0</v>
@@ -666,7 +789,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
@@ -678,13 +801,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -696,12 +819,12 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="b">
         <v>1</v>
@@ -710,7 +833,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
@@ -722,13 +845,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -740,12 +863,12 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>1</v>
@@ -754,7 +877,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1" t="b">
         <v>0</v>
@@ -763,7 +886,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="b">
         <v>0</v>
@@ -772,7 +895,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="b">
         <v>0</v>
@@ -780,48 +903,52 @@
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>5</v>
+      </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="b">
         <v>0</v>
@@ -830,21 +957,2339 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>6</v>
+      </c>
       <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>8</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>12</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>15</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>8</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>17</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C69" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>19</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>20</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>21</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>22</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>3</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>23</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>3</v>
+      </c>
+      <c r="F97">
+        <v>8</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>25</v>
+      </c>
+      <c r="B101" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>17</v>
+      </c>
+      <c r="C102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="C103" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>26</v>
+      </c>
+      <c r="B106" t="s">
+        <v>44</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>8</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B110" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>27</v>
+      </c>
+      <c r="B111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>3</v>
+      </c>
+      <c r="F111">
+        <v>8</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>28</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>3</v>
+      </c>
+      <c r="F114">
+        <v>8</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B115" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>29</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>8</v>
+      </c>
+      <c r="G119">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>30</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C124" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>3</v>
+      </c>
+      <c r="F124">
+        <v>8</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>31</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C129" t="s">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>3</v>
+      </c>
+      <c r="F129">
+        <v>8</v>
+      </c>
+      <c r="G129">
+        <v>2</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>32</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C133" t="s">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>8</v>
+      </c>
+      <c r="G133">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>33</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>3</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+      <c r="G137">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B139" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>34</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>3</v>
+      </c>
+      <c r="F141">
+        <v>8</v>
+      </c>
+      <c r="G141">
+        <v>2</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B142" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>35</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C145" t="s">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>3</v>
+      </c>
+      <c r="F145">
+        <v>8</v>
+      </c>
+      <c r="G145">
+        <v>2</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>36</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" t="s">
+        <v>11</v>
+      </c>
+      <c r="D149" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <v>8</v>
+      </c>
+      <c r="G149">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B152" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>37</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" t="s">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>3</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+      <c r="G153">
+        <v>2</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>38</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>8</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>39</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C161" t="s">
+        <v>11</v>
+      </c>
+      <c r="D161" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>8</v>
+      </c>
+      <c r="G161">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C163" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B164" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165">
+        <v>40</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C165" t="s">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>3</v>
+      </c>
+      <c r="F165">
+        <v>8</v>
+      </c>
+      <c r="G165">
+        <v>2</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B166" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B167" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>41</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C169" t="s">
+        <v>11</v>
+      </c>
+      <c r="D169" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>3</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+      <c r="G169">
+        <v>2</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B170" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B172" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>42</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" t="s">
+        <v>11</v>
+      </c>
+      <c r="D173" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>8</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B176" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>43</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C177" t="s">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>3</v>
+      </c>
+      <c r="F177">
+        <v>8</v>
+      </c>
+      <c r="G177">
+        <v>2</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>44</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C181" t="s">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181">
+        <v>8</v>
+      </c>
+      <c r="G181">
+        <v>2</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D183" s="1"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D184" s="1"/>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>45</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C185" t="s">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <v>8</v>
+      </c>
+      <c r="G185">
+        <v>2</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D187" s="1"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>46</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C189" t="s">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>3</v>
+      </c>
+      <c r="F189">
+        <v>8</v>
+      </c>
+      <c r="G189">
+        <v>2</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B190" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1"/>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D192" s="1"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>47</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C193" t="s">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>3</v>
+      </c>
+      <c r="F193">
+        <v>8</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C194" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C195" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>48</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C197" t="s">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>3</v>
+      </c>
+      <c r="F197">
+        <v>8</v>
+      </c>
+      <c r="G197">
+        <v>2</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C198" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C199" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B200" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D200" s="1"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B201" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">

--- a/read3.xlsx
+++ b/read3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/server/hgedu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HGEdu\hgedu_server\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,8 @@
   <definedNames>
     <definedName name="Bq">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>end</t>
   </si>
   <si>
-    <t>Chất nào sau đây thuộc loại amin bậc hai ?</t>
-  </si>
-  <si>
     <t>metylamin</t>
   </si>
   <si>
@@ -71,12 +65,6 @@
     <t>1,44 gam.</t>
   </si>
   <si>
-    <t>Chương Polime</t>
-  </si>
-  <si>
-    <t>Cho vào ống nghiệm 1 ml dung dịch anilin, nhỏ tiếp vào đó vài giọt dung dịch Br2. Quan sảt thấy xuất hiện kết tủa màu</t>
-  </si>
-  <si>
     <t>tím</t>
   </si>
   <si>
@@ -95,16 +83,19 @@
     <t>Tự giải theo ví dụ 3 của anh ngày 15/12/2019</t>
   </si>
   <si>
-    <t xml:space="preserve">Đọc sách Hóa Học 12 chương Polime </t>
-  </si>
-  <si>
     <t>HH_12_1</t>
   </si>
   <si>
     <t>HH_12_2</t>
   </si>
   <si>
-    <t>HH_12_3</t>
+    <t>Chất nào sau đây thuộc loại &lt;ct&gt;amin&lt;/ct&gt; bậc hai ?</t>
+  </si>
+  <si>
+    <t>2 Cho hàm số &lt;ct&gt;y = f( x )&lt;/ct&gt; đồng biến trên &lt;ct&gt;D&lt;/ct&gt; và &lt;ct&gt;(x_1)&lt;/ct&gt;,&lt;ct&gt;(x_2)&lt;/ct&gt; thuộc &lt;ct&gt;D&lt;/ct&gt; mà &lt;ct&gt;(x_1) &gt; (x_2)&lt;/ct&gt;, khi đó:</t>
+  </si>
+  <si>
+    <t>HH_12_3_2</t>
   </si>
 </sst>
 </file>
@@ -258,11 +249,42 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,33 +555,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.875" customWidth="1"/>
+    <col min="3" max="3" width="97.75" customWidth="1"/>
+    <col min="4" max="4" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1">
         <v>3</v>
@@ -571,55 +593,55 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>4</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -631,55 +653,52 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -690,45 +709,42 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>0</v>
       </c>

--- a/read3.xlsx
+++ b/read3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\HGEdu\hgedu_server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,11 @@
   <definedNames>
     <definedName name="Bq">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,75 +30,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>metylamin</t>
-  </si>
-  <si>
-    <t>phenylamin</t>
-  </si>
-  <si>
-    <t>đimetylamin</t>
-  </si>
-  <si>
-    <t>trimetylamin</t>
-  </si>
-  <si>
-    <t>Chương Amin</t>
-  </si>
-  <si>
-    <t>Lượng glucozơ cần dùng để tạo ra 1,82 gam sobitol vói hiệu suất 80% là</t>
-  </si>
-  <si>
-    <t>Câu hỏi Glucozơ</t>
-  </si>
-  <si>
-    <t>2,25 gam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1,80 gam.</t>
-  </si>
-  <si>
-    <t>1,82 gam.</t>
-  </si>
-  <si>
-    <t>1,44 gam.</t>
-  </si>
-  <si>
-    <t>tím</t>
-  </si>
-  <si>
-    <t>xanh</t>
-  </si>
-  <si>
-    <t>trắng</t>
-  </si>
-  <si>
-    <t>nâu đỏ</t>
-  </si>
-  <si>
-    <t>Chưa có nha các em =)))</t>
-  </si>
-  <si>
-    <t>Tự giải theo ví dụ 3 của anh ngày 15/12/2019</t>
-  </si>
-  <si>
-    <t>HH_12_1</t>
-  </si>
-  <si>
-    <t>HH_12_2</t>
-  </si>
-  <si>
-    <t>Chất nào sau đây thuộc loại &lt;ct&gt;amin&lt;/ct&gt; bậc hai ?</t>
-  </si>
-  <si>
-    <t>2 Cho hàm số &lt;ct&gt;y = f( x )&lt;/ct&gt; đồng biến trên &lt;ct&gt;D&lt;/ct&gt; và &lt;ct&gt;(x_1)&lt;/ct&gt;,&lt;ct&gt;(x_2)&lt;/ct&gt; thuộc &lt;ct&gt;D&lt;/ct&gt; mà &lt;ct&gt;(x_1) &gt; (x_2)&lt;/ct&gt;, khi đó:</t>
-  </si>
-  <si>
-    <t>HH_12_3_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+  <si>
+    <t>Chương Hàm Số Mũ</t>
+  </si>
+  <si>
+    <t>HSM_12_1</t>
+  </si>
+  <si>
+    <t>Hàm số &lt;ct&gt;y = a^x (0 &lt; a \neq 1)&lt;/ct&gt; đồng biến khi nào?</t>
+  </si>
+  <si>
+    <t>a &gt; 1</t>
+  </si>
+  <si>
+    <t>0 &lt; a &lt; 1</t>
+  </si>
+  <si>
+    <t>a &gt; 0</t>
+  </si>
+  <si>
+    <t>&lt;ct&gt;a\ge 1&lt;/ct&gt;</t>
+  </si>
+  <si>
+    <t>HSM_12_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hàm số nào đồng biến trên R? </t>
+  </si>
+  <si>
+    <t>&lt;ct&gt;y = (\frac{\sqrt{2}}{2})^x&lt;/ct&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ct&gt;y = ({\sqrt{3}}-1)^x&lt;/ct&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ct&gt;y = (\frac{1}{2})^x&lt;/ct&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ct&gt;y = 3^{2x}&lt;/ct&gt;</t>
+  </si>
+  <si>
+    <t>Chọn khẳng định đúng</t>
+  </si>
+  <si>
+    <t>HSM_12_3</t>
+  </si>
+  <si>
+    <t>Đồ thị hàm số &lt;ct&gt;y = a^x(0 &lt; a \ne 1)&lt;/ct&gt; đi qua điểm (0;0)</t>
+  </si>
+  <si>
+    <t>Đồ thị hàm số &lt;ct&gt;y = a^x(0 &lt; a \ne 1)&lt;/ct&gt; có tiệm cận đứng x = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồ thị hàm số &lt;ct&gt;y = a^x(0 &lt; a \ne 1)&lt;/ct&gt; cắt trục hoành tại duy nhất 1 điểm </t>
+  </si>
+  <si>
+    <t>Đồ thị hàm số &lt;ct&gt;y = a^x(0 &lt; a \ne 1)&lt;/ct&gt; nằm hoàn toàn phía trên trục hoành</t>
+  </si>
+  <si>
+    <t>HSM_12_4</t>
+  </si>
+  <si>
+    <t>Đọc sách giáo khoa</t>
+  </si>
+  <si>
+    <t>Đồ thị hàm số &lt;ct&gt;y = 2^x&lt;/ct&gt; đi qua điểm (0;0)</t>
+  </si>
+  <si>
+    <t>Đồ thị hàm số &lt;ct&gt;y = 2^x&lt;/ct&gt; có tiệm cận đứng x = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồ thị hàm số &lt;ct&gt;y = 2^x&lt;/ct&gt; cắt trục hoành duy nhất tại 1 điểm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nằm hoàn toàn phía trên trục hoành </t>
+  </si>
+  <si>
+    <t>HSM_12_5</t>
+  </si>
+  <si>
+    <t>Hàm số &lt;ct&gt;y = a^{-x}(0 &lt; a \ne -1)&lt;/ct&gt; đồng biến nếu a &gt; 1</t>
+  </si>
+  <si>
+    <t>Hàm số &lt;ct&gt;y = a^{-x}(0 &lt; a \ne -1)&lt;/ct&gt; nghịch biến nếu 0 &lt; a &lt; 1</t>
+  </si>
+  <si>
+    <t>Hàm số &lt;ct&gt;y = a^{-x}(0 &lt; a \ne -1)&lt;/ct&gt; đồng biến nếu 0 &lt; a &lt; 1</t>
+  </si>
+  <si>
+    <t>Hàm số &lt;ct&gt;y = a^{-x}(0 &lt; a \ne -1)&lt;/ct&gt; luôn nghịch biến trên R</t>
   </si>
 </sst>
 </file>
@@ -151,8 +175,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -202,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -225,6 +251,7 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -247,44 +274,14 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -553,199 +550,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="40.875" customWidth="1"/>
-    <col min="3" max="3" width="97.75" customWidth="1"/>
-    <col min="4" max="4" width="25.625" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>12</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>8</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C5" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>12</v>
       </c>
-      <c r="C12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="b">
         <v>0</v>
       </c>
     </row>
